--- a/tabla_emitidos_multiples.xlsx
+++ b/tabla_emitidos_multiples.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
   <si>
     <t>Documento</t>
   </si>
@@ -580,6 +580,33 @@
   </si>
   <si>
     <t>SOLICITA ENTREGA DE LOS ESPACIOS PARA LA INTERVENCIÓN Y CONCLUIR CON LOS IOARR</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-001-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-002-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-003-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-004-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-005-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-006-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-007-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-008-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>Oficio Múltiple-009-2021-COC-19-C</t>
   </si>
 </sst>
 </file>
@@ -968,13 +995,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="32.25" customWidth="1"/>
     <col min="2" max="2" width="33.625" customWidth="1"/>
     <col min="3" max="3" width="24.375" customWidth="1"/>
     <col min="4" max="4" width="14.125" customWidth="1"/>
@@ -2088,7 +2115,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>114</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
         <v>22</v>
@@ -2096,13 +2123,16 @@
       <c r="C66" t="s">
         <v>103</v>
       </c>
+      <c r="D66" s="1">
+        <v>44201</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
         <v>104</v>
@@ -2110,13 +2140,16 @@
       <c r="C67" t="s">
         <v>105</v>
       </c>
+      <c r="D67" s="1">
+        <v>44203</v>
+      </c>
       <c r="E67" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
         <v>22</v>
@@ -2124,13 +2157,16 @@
       <c r="C68" t="s">
         <v>106</v>
       </c>
+      <c r="D68" s="1">
+        <v>44204</v>
+      </c>
       <c r="E68" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
         <v>107</v>
@@ -2138,13 +2174,16 @@
       <c r="C69" t="s">
         <v>106</v>
       </c>
+      <c r="D69" s="1">
+        <v>44207</v>
+      </c>
       <c r="E69" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
         <v>22</v>
@@ -2152,13 +2191,16 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
+      <c r="D70" s="1">
+        <v>44208</v>
+      </c>
       <c r="E70" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>190</v>
       </c>
       <c r="B71" t="s">
         <v>109</v>
@@ -2166,13 +2208,16 @@
       <c r="C71" t="s">
         <v>108</v>
       </c>
+      <c r="D71" s="1">
+        <v>44210</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>191</v>
       </c>
       <c r="B72" t="s">
         <v>111</v>
@@ -2180,13 +2225,16 @@
       <c r="C72" t="s">
         <v>110</v>
       </c>
+      <c r="D72" s="1">
+        <v>44208</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>192</v>
       </c>
       <c r="B73" t="s">
         <v>22</v>
@@ -2194,19 +2242,25 @@
       <c r="C73" t="s">
         <v>112</v>
       </c>
+      <c r="D73" s="1">
+        <v>44208</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
         <v>113</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
+      </c>
+      <c r="D74" s="1">
+        <v>44215</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>3</v>

--- a/tabla_emitidos_multiples.xlsx
+++ b/tabla_emitidos_multiples.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SARA\OneDrive\GORE\COMANDO COVID\6. TABLERO DE MANDO\repositorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bran/Documents/GitHub/repositorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECBD065-717A-264C-97A3-A3677445B833}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10065" windowHeight="3060"/>
+    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="266">
   <si>
     <t>Documento</t>
   </si>
@@ -33,9 +35,6 @@
   </si>
   <si>
     <t>Asunto</t>
-  </si>
-  <si>
-    <t>http://rstudio.com</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -607,12 +606,231 @@
   </si>
   <si>
     <t>Oficio Múltiple-009-2021-COC-19-C</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20001-2020%20COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20002-2020%20COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20003-2020%20COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20004-2020%20COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20005-2020%20COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20006-2020-COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20007-2020-COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20008-2020-COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20009-2020-COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20010-2020-COC.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20011-2020-COC-19.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20012-2020-COC-19.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20013-2020-COC-19.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20014-2020-COC-19.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20015-2020-COC-19.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20016-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20017-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20018-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20019-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20020-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20021-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20022-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20023-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20024-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20025-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20026-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20027-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20028-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20029-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20030-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20031-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20032-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20033-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20034-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20035-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20036-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20037-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20038-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20039-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20040-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20041-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20042-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20043-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20044-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20045-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20046-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20047-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20048-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20049.2-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20050-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20051-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20052-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20053-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20054-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20055-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20056-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20057-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20058-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20059-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20060-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20061-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MULTIPLE%20062-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20063-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2020/emitidos/SCAN%20OF%20MÚLTIPLE%20064-2020-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20001-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20002-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20003-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20004-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20005-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20006-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20007-2021-COC-19C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20008-2021-COC-19-C.pdf</t>
+  </si>
+  <si>
+    <t>https://github.com/geresacusco/repositorio/raw/master/2021/emitidos/SCAN%20OF%20MULT%20009-2021-COC-19C.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -680,7 +898,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -992,1357 +1210,1345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.25" customWidth="1"/>
-    <col min="2" max="2" width="33.625" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>44019</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>44020</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1">
         <v>44025</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>44028</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>44028</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>44028</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="1">
         <v>44033</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>44033</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>44035</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1">
         <v>44035</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>44035</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>44033</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>44033</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
         <v>179</v>
-      </c>
-      <c r="C15" t="s">
-        <v>180</v>
       </c>
       <c r="D15" s="1">
         <v>44036</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1">
         <v>44050</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1">
         <v>44050</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="1">
         <v>44050</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1">
         <v>44050</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" s="1">
         <v>44055</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" s="1">
         <v>43964</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="1">
         <v>44056</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="1">
         <v>44056</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1">
         <v>44057</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" s="1">
         <v>44057</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="1">
         <v>44057</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D27" s="1">
         <v>44057</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D28" s="1">
         <v>44057</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D29" s="1">
         <v>44057</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="1">
         <v>44057</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>44062</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D32" s="1">
         <v>44063</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
         <v>53</v>
-      </c>
-      <c r="C33" t="s">
-        <v>54</v>
       </c>
       <c r="D33" s="1">
         <v>44063</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" s="1">
         <v>44063</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" s="1">
         <v>44062</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="1">
         <v>44063</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" s="1">
         <v>44069</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="D38" s="1">
         <v>44069</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1">
         <v>44070</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="1">
         <v>44078</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="1">
         <v>44078</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D42" s="1">
         <v>44102</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D43" s="1">
         <v>44102</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D44" s="1">
         <v>44120</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D45" s="1">
         <v>44120</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1">
         <v>44158</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="D47" s="1">
         <v>44158</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="D48" s="1">
         <v>44155</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" t="s">
         <v>76</v>
-      </c>
-      <c r="C49" t="s">
-        <v>77</v>
       </c>
       <c r="D49" s="1">
         <v>44159</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D50" s="1">
         <v>44160</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D51" s="1">
         <v>44175</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" t="s">
         <v>81</v>
-      </c>
-      <c r="C52" t="s">
-        <v>82</v>
       </c>
       <c r="D52" s="1">
         <v>44179</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D53" s="1">
         <v>44179</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
+        <v>82</v>
+      </c>
+      <c r="C54" t="s">
         <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>84</v>
       </c>
       <c r="D54" s="1">
         <v>44179</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="1">
         <v>44179</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1">
         <v>44179</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C57" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1">
         <v>44179</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D58" s="1">
         <v>44195</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D59" s="1">
         <v>44181</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C60" t="s">
         <v>94</v>
-      </c>
-      <c r="C60" t="s">
-        <v>95</v>
       </c>
       <c r="D60" s="1">
         <v>44195</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61" s="1">
         <v>44195</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D62" s="1">
         <v>44195</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D63" s="1">
         <v>44195</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D64" s="1">
         <v>44195</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D65" s="1">
         <v>44195</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D66" s="1">
         <v>44201</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
         <v>104</v>
-      </c>
-      <c r="C67" t="s">
-        <v>105</v>
       </c>
       <c r="D67" s="1">
         <v>44203</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D68" s="1">
         <v>44204</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D69" s="1">
         <v>44207</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D70" s="1">
         <v>44208</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D71" s="1">
         <v>44210</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1">
         <v>44208</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D73" s="1">
         <v>44208</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D74" s="1">
         <v>44215</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>3</v>
+      <c r="E74" t="s">
+        <v>265</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E19" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
-    <hyperlink ref="E44" r:id="rId43"/>
-    <hyperlink ref="E45" r:id="rId44"/>
-    <hyperlink ref="E46" r:id="rId45"/>
-    <hyperlink ref="E47" r:id="rId46"/>
-    <hyperlink ref="E48" r:id="rId47"/>
-    <hyperlink ref="E49" r:id="rId48"/>
-    <hyperlink ref="E50" r:id="rId49"/>
-    <hyperlink ref="E51" r:id="rId50"/>
-    <hyperlink ref="E52" r:id="rId51"/>
-    <hyperlink ref="E53" r:id="rId52"/>
-    <hyperlink ref="E54" r:id="rId53"/>
-    <hyperlink ref="E55" r:id="rId54"/>
-    <hyperlink ref="E56" r:id="rId55"/>
-    <hyperlink ref="E57" r:id="rId56"/>
-    <hyperlink ref="E58" r:id="rId57"/>
-    <hyperlink ref="E59" r:id="rId58"/>
-    <hyperlink ref="E60" r:id="rId59"/>
-    <hyperlink ref="E61" r:id="rId60"/>
-    <hyperlink ref="E62" r:id="rId61"/>
-    <hyperlink ref="E63" r:id="rId62"/>
-    <hyperlink ref="E64" r:id="rId63"/>
-    <hyperlink ref="E65" r:id="rId64"/>
-    <hyperlink ref="E66" r:id="rId65"/>
-    <hyperlink ref="E67" r:id="rId66"/>
-    <hyperlink ref="E68" r:id="rId67"/>
-    <hyperlink ref="E69" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
-    <hyperlink ref="E71" r:id="rId70"/>
-    <hyperlink ref="E72" r:id="rId71"/>
-    <hyperlink ref="E73" r:id="rId72"/>
-    <hyperlink ref="E74" r:id="rId73"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{F2B46258-9442-A047-AACA-5C34EAB67DA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F7D7FE7-3AD1-1D4B-9956-013909DDB421}">
+  <dimension ref="A3:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>